--- a/docentes/Velasco Sanchez David Estadisticos 2020.xlsx
+++ b/docentes/Velasco Sanchez David Estadisticos 2020.xlsx
@@ -1168,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1191,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1214,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1237,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1260,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1283,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1306,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1329,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1352,7 +1352,7 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1398,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1421,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
